--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,92 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>测试平台</t>
+          <t>项目类型</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>项目</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>模块名称</t>
+          <t>模块</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>子模块名称</t>
+          <t>子模块</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>功能</t>
+          <t>功能点</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>用例名称</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>优先级</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>是否准入用例</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>是否自动化</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>关联需求</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>版本标签</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>版本号</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>步骤</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>预期结果</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>附件图片</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>用例作者</t>
         </is>
       </c>
     </row>
@@ -492,50 +532,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>查询</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>查询按钮单击</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Phone自定义定向默认值</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>单击查询按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -543,50 +595,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>查询</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>查询按钮双击</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Phone自定义定向中文字符</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>双击查询按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>输入中文字符。（如：测试文本框）</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>文本框中可以输入中文字符。</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -594,50 +658,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>批量操作</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>批量操作按钮单击</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Phone自定义定向英文字符</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>单击批量操作按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>输入英文字符。（如：TestText）</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>文本框中可以输入英文字符。</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -645,50 +721,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>批量操作</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>批量操作按钮双击</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Phone自定义定向数字字符</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>双击批量操作按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>输入数字字符。（如：-0123.4560）</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>文本框中可以输入数字字符。</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -696,50 +784,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>创意类型下拉框</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>创意类型下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Phone自定义定向特殊字符</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>文本框中可以输入特殊字符。</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -747,50 +847,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>创意类型下拉框</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>创意类型下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>Phone自定义定向混合字符</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>文本框中可以输入所有字符混合。</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -798,50 +910,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>创意类型下拉框</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>创意类型下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>Phone自定义定向字符长度限制</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>文本框中输入超过字符长度的字符，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -849,50 +973,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>创意类型下拉框</t>
+          <t>Phone自定义定向</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>创意类型下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Phone自定义定向是否必填</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -900,50 +1036,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>渠道下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>渠道下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>Phone自定义定向1默认值</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>按前置条件</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -951,50 +1099,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>渠道下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>渠道下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Phone自定义定向1中文字符</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>输入中文字符。（如：测试文本框）</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>文本框中可以输入中文字符。</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1002,50 +1162,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>渠道下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>渠道下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Phone自定义定向1英文字符</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>输入英文字符。（如：TestText）</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>文本框中可以输入英文字符。</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1053,50 +1225,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>渠道下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>渠道下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Phone自定义定向1数字字符</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>输入数字字符。（如：-0123.4560）</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>文本框中可以输入数字字符。</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1104,50 +1288,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>操作按钮单击</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Phone自定义定向1特殊字符</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>单击操作按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>文本框中可以输入特殊字符。</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1155,50 +1351,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>操作按钮双击</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Phone自定义定向1混合字符</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>双击操作按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>文本框中可以输入所有字符混合。</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1206,50 +1414,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>选择客户下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>选择客户下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Phone自定义定向1字符长度限制</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>文本框中输入超过字符长度的字符，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1257,50 +1477,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>选择客户下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>选择客户下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Phone自定义定向1缩小</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>拖动多行文本框右下方缩放按钮，使多行文本框缩小</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>页面显示正确。</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1308,50 +1540,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>选择客户下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>选择客户下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>Phone自定义定向1放大</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>拖动多行文本框右下方缩放按钮，使多行文本框放大</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>页面显示正确。</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1359,50 +1603,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>选择客户下拉框</t>
+          <t>Phone自定义定向1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>选择客户下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>Phone自定义定向1是否必填</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1410,50 +1666,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>新增按钮单击</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>Phone自定义定向2默认值</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>单击新增按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1461,50 +1729,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>新增按钮双击</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Phone自定义定向2数值正负</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>双击新增按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>输入正负数。（如：123，-123）</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>如果只限制正数，则负数提交报错，否则可以提交当前页面。</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1512,50 +1792,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>提供方式下拉框</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>提供方式下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Phone自定义定向2数值有效位</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>按照其规则，依次在数字框中输入小数（如：规定保留3位小数，依次在数字框中输入1.23456，1.2）</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>允许小数（保留位数），超出四舍五入。</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1563,50 +1855,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>提供方式下拉框</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>提供方式下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>Phone自定义定向2数值限值</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>有限制大小的话数字框中输入超过数值大小范围的数字，否则输入999999999</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>如果限制了大小输入超出限制值会报错，否则都可以正常提交。</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1614,50 +1918,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>提供方式下拉框</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>提供方式下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>Phone自定义定向2非数值</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>文本框中输入非数值字符</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>消息提醒且无法提交当前页面。</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1665,50 +1981,62 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>提供方式下拉框</t>
+          <t>Phone自定义定向2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>提供方式下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>Phone自定义定向2是否必填</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1716,50 +2044,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>长宽比下拉框</t>
+          <t>Phone自定义定向3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>长宽比下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Phone自定义定向3默认值</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>按前置条件</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1767,50 +2107,62 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>长宽比下拉框</t>
+          <t>Phone自定义定向3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>长宽比下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Phone自定义定向3下拉值内容</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>点击展开下拉框</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>下拉值数量正确。</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1818,50 +2170,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>长宽比下拉框</t>
+          <t>Phone自定义定向3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>长宽比下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Phone自定义定向3随机选取下拉值</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>随机选择下拉框值</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1869,50 +2233,62 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>长宽比下拉框</t>
+          <t>Phone自定义定向3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>长宽比下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>Phone自定义定向3关联项</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>随机选择下拉框值</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>如果有关联项的话，关联项展示正确。</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1920,50 +2296,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>导入</t>
+          <t>Phone自定义定向3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>导入按钮单击</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>Phone自定义定向3是否必填</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>单击导入按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1971,50 +2359,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>导入</t>
+          <t>Phone自定义定向4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>导入按钮双击</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>Phone自定义定向4默认值</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>双击导入按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2022,50 +2422,62 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>转码通道下拉框</t>
+          <t>Phone自定义定向4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>转码通道下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Phone自定义定向4下拉值内容</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>点击展开下拉框</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>下拉值数量正确。</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2073,50 +2485,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>转码通道下拉框</t>
+          <t>Phone自定义定向4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>转码通道下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>Phone自定义定向4随机选取多个下拉值</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>随机选择下拉框值</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2124,50 +2548,62 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>转码通道下拉框</t>
+          <t>Phone自定义定向4</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>转码通道下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>Phone自定义定向4关联项</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>随机选择下拉框值</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>如果有关联项的话，关联项展示正确。</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2175,50 +2611,62 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>转码通道下拉框</t>
+          <t>Phone自定义定向4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>转码通道下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>Phone自定义定向4是否必填</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2226,50 +2674,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>互斥标签文本框默认值</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>Phone自定义定向5默认值</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>按前置条件</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2277,50 +2737,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>互斥标签文本框中文字符</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>Phone自定义定向5勾选</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>输入中文字符。（如：测试文本框）</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>文本框中可以输入中文字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>点击勾选框</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>点击第1个选项时第1个选项被勾选；点击第2个选项时第2个选项被勾选，第1个选项取消勾选。</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2328,50 +2800,62 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>互斥标签文本框英文字符</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>Phone自定义定向5取消勾选</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>输入英文字符。（如：TestText）</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>文本框中可以输入英文字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>双击勾选框</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>可以取消勾选：点击某选项第1次时勾选该选项，第2次时取消勾选。不可以取消勾选：点击某选项第1次时勾选该选项，第2次时无反应。</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2379,50 +2863,62 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>互斥标签文本框数字字符</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>Phone自定义定向5是否必填</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>输入数字字符。（如：-0123.4560）</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>文本框中可以输入数字字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2430,50 +2926,62 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向6</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>互斥标签文本框特殊字符</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>Phone自定义定向6默认值</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>文本框中可以输入特殊字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2481,50 +2989,62 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向6</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>互斥标签文本框混合字符</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>Phone自定义定向6勾选</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>文本框中可以输入所有字符混合。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>点击勾选框</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>点击第1个选项时第1个选项被勾选；点击第2个选项时第2个选项被勾选，第1个选项不变。</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2532,50 +3052,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>互斥标签文本框</t>
+          <t>Phone自定义定向6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>互斥标签文本框字符长度限制</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>Phone自定义定向6取消勾选</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>文本框中输入超过字符长度的信息，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>双击勾选框</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>可以取消勾选：点击某选项第1次时勾选该选项，第2次时取消勾选。不可以取消勾选：点击某选项第1次时勾选该选项，第2次时无反应。</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2583,50 +3115,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>新增复合素材</t>
+          <t>Phone自定义定向6</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>新增复合素材按钮单击</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>Phone自定义定向6是否必填</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>单击按钮</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>单击新增复合素材按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2634,50 +3178,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>新增复合素材</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>新增复合素材按钮双击</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>Phone自定义定向7默认值</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>双击按钮</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>双击新增复合素材按钮后，响应正常，结果显示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2685,50 +3241,62 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框默认值</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>Phone自定义定向7左侧待选择数据内容是否正确</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>点击展开左侧数据</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>与产品设计一致。</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2736,50 +3304,62 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框下拉值内容</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>Phone自定义定向7左侧数据为空时是否正常显示</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>下拉值数量正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>点击展开左侧数据</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>显示正常，数据为空。</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2787,50 +3367,62 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>Phone自定义定向7左侧数据过多时是否正常显示</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>点击展开左侧数据</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>显示进度条可以下拉。</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2838,50 +3430,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>使用新加载器下拉框关联项</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>Phone自定义定向7目录是否正确，目录切换时数据是否正确</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>点击展开左侧数据，切换目录</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>目录是否正确，目录切换时数据正确。</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2889,50 +3493,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>创意名称文本框默认值</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>Phone自定义定向7左侧查询功能是否正常</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>按前置条件</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>输入查询条件，查看结果</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>查询结果与输入条件一致。</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2940,50 +3556,62 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>创意名称文本框中文字符</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>Phone自定义定向7右侧已选择数据是否与左侧待选择数据一致</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>输入中文字符。（如：测试文本框）</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>文本框中可以输入中文字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>点击展开左侧数据，选择数据至右侧</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>右侧已选择数据与左侧待选择数据一致。</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2991,50 +3619,62 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>创意名称文本框英文字符</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>Phone自定义定向7右侧数据为空时是否正常显示</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>输入英文字符。（如：TestText）</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>文本框中可以输入英文字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>点击展开右侧数据</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>显示正常，数据为空。</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3042,50 +3682,62 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>创意名称文本框数字字符</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>Phone自定义定向7右侧数据过多时是否正常显示</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>输入数字字符。（如：-0123.4560）</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>文本框中可以输入数字字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>选择全部数据至右侧</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>显示进度条可以下拉。</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3093,50 +3745,62 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>创意名称文本框特殊字符</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Phone自定义定向7是否能从左侧添加数据到右侧</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>文本框中可以输入特殊字符。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>选择左侧数据添加至右侧</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>能从左侧添加数据到右侧。</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3144,50 +3808,62 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>创意名称文本框混合字符</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>Phone自定义定向7是否能从右侧删除数据</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>文本框中可以输入所有字符混合。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>删除右侧数据</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>能从右侧删除数据。</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3195,50 +3871,629 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>统一运营平台</t>
+          <t>管理后台</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>统一运营平台-DSP</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>素材管理</t>
+          <t>广告</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>广告素材</t>
+          <t>广告定向</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>创意名称文本框</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>创意名称文本框字符长度限制</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>登陆AMP,进入素材管理-&gt;广告素材,点击新增</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>Phone自定义定向7是否防止重复添加数据</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>文本框中输入超过字符长度的信息，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
-        </is>
-      </c>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>选择左侧数据重复添加至右侧</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>可以防止重复添加数据。</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Phone自定义定向7</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Phone自定义定向7是否必填</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8默认值</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8日期选择</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>点击选择日期</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>点击选择日期按钮，弹出日期选择框。日期选择框中选择一个日期，日期选择框自动关闭，日期框中自动填入选择的日期。</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8日期自动选择</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>点击选择近一周/一个月等</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>根据实际规则，进行会让日期自动选择的操作，日期框自动填入日期。（如【申请日期】选择一个日期，【提交日期】也自动选择相同的日期）。</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8日期输入</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>手动输入日期</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>如果支持手动输入则日期框中输入正确格式的信息，日期框变为输入的日期，可以提交当前页面。日期框中输入错误格式的信息（如：测试日期框），消息提醒且无法提交当前页面，否则输入无效。</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8日期范围</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>点击选择一段日期</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>日期框中输入日期范围内的日期，日期框变为输入的日期，可以提交当前页面。日期框中输入日期范围外的日期，消息提醒且无法提交当前页面。</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Phone自定义定向8是否必填</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>按前置条件</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>输入框为必填，不填保存提示必填。</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Phone自定义定向9</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Phone自定义定向9单击</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>单击按钮</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>单击Phone自定义定向9后，响应正常，结果显示正确。</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Phone自定义定向9</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Phone自定义定向9双击</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>双击按钮</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>双击Phone自定义定向9后，响应正常，结果显示正确。</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,11 @@
           <t>Phone自定义定向默认值</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>否</t>
@@ -571,9 +575,17 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>111</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>22</v>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>按前置条件</t>
@@ -620,10 +632,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phone自定义定向中文字符</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Phone自定义定向是否必填</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>否</t>
@@ -634,17 +650,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>111</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>22</v>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>输入中文字符。（如：测试文本框）</t>
+          <t>按前置条件</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>文本框中可以输入中文字符。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -683,10 +707,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phone自定义定向英文字符</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Phone自定义定向中文字符</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>否</t>
@@ -697,17 +725,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>111</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>22</v>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>输入英文字符。（如：TestText）</t>
+          <t>输入中文字符。（如：测试文本框）</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>文本框中可以输入英文字符。</t>
+          <t>文本框中可以输入中文字符。</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -746,10 +782,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phone自定义定向数字字符</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Phone自定义定向英文字符</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>否</t>
@@ -760,17 +800,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>111</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>22</v>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>输入数字字符。（如：-0123.4560）</t>
+          <t>输入英文字符。（如：TestText）</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>文本框中可以输入数字字符。</t>
+          <t>文本框中可以输入英文字符。</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -809,10 +857,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phone自定义定向特殊字符</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Phone自定义定向数字字符</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>否</t>
@@ -823,17 +875,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>111</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>22</v>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
+          <t>输入数字字符。（如：-0123.4560）</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>文本框中可以输入特殊字符。</t>
+          <t>文本框中可以输入数字字符。</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -872,10 +932,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phone自定义定向混合字符</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Phone自定义定向特殊字符</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>否</t>
@@ -886,17 +950,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>111</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>22</v>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
+          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>文本框中可以输入所有字符混合。</t>
+          <t>文本框中可以输入特殊字符。</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -935,10 +1007,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phone自定义定向字符长度限制</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Phone自定义定向混合字符</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>否</t>
@@ -949,17 +1025,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>111</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>22</v>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
+          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>文本框中输入超过字符长度的字符，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
+          <t>文本框中可以输入所有字符混合。</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -998,10 +1082,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phone自定义定向是否必填</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Phone自定义定向字符长度限制</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>否</t>
@@ -1012,17 +1100,25 @@
           <t>否</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>111</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>V1.0.2</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>22</v>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>按前置条件</t>
+          <t>输入字符长度超出限制%s长度%max</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>文本框中输入超过30字符长度的字符，消息提醒且无法提交当前页面或文本框中无法输入超过字符长度的信息。</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1064,7 +1160,11 @@
           <t>Phone自定义定向1默认值</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>否</t>
@@ -1124,10 +1224,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phone自定义定向1中文字符</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Phone自定义定向1是否必填</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>否</t>
@@ -1143,12 +1247,12 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>输入中文字符。（如：测试文本框）</t>
+          <t>按前置条件</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>文本框中可以输入中文字符。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1187,10 +1291,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phone自定义定向1英文字符</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Phone自定义定向1中文字符</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>否</t>
@@ -1206,12 +1314,12 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>输入英文字符。（如：TestText）</t>
+          <t>输入中文字符。（如：测试文本框）</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>文本框中可以输入英文字符。</t>
+          <t>文本框中可以输入中文字符。</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1250,10 +1358,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phone自定义定向1数字字符</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Phone自定义定向1英文字符</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>否</t>
@@ -1269,12 +1381,12 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>输入数字字符。（如：-0123.4560）</t>
+          <t>输入英文字符。（如：TestText）</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>文本框中可以输入数字字符。</t>
+          <t>文本框中可以输入英文字符。</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1313,10 +1425,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phone自定义定向1特殊字符</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Phone自定义定向1数字字符</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>否</t>
@@ -1332,12 +1448,12 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
+          <t>输入数字字符。（如：-0123.4560）</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>文本框中可以输入特殊字符。</t>
+          <t>文本框中可以输入数字字符。</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1376,10 +1492,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phone自定义定向1混合字符</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Phone自定义定向1特殊字符</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>否</t>
@@ -1395,12 +1515,12 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
+          <t>输入特殊字符。（如：αβγさしすⅠⅡⅢ＋－×÷）</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>文本框中可以输入所有字符混合。</t>
+          <t>文本框中可以输入特殊字符。</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1439,10 +1559,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phone自定义定向1字符长度限制</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Phone自定义定向1混合字符</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>否</t>
@@ -1458,12 +1582,12 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>输入字符长度超出限制长度，如无限制文本框中输入足够长的信息（如100个字符）</t>
+          <t>输入混合字符。（如：测试文本框TestText-0123.4560αβγさしすⅠⅡⅢ＋－×÷）</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>文本框中输入超过字符长度的字符，消息提醒且无法提交当前页面；或文本框中无法输入超过字符长度的信息。如无限制多少都可以提交。</t>
+          <t>文本框中可以输入所有字符混合。</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1502,10 +1626,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phone自定义定向1缩小</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Phone自定义定向1字符长度限制</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>否</t>
@@ -1521,12 +1649,12 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>拖动多行文本框右下方缩放按钮，使多行文本框缩小</t>
+          <t>输入字符长度超出限制%s长度%max</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>页面显示正确。</t>
+          <t>文本框中输入超过100字符长度的字符，消息提醒且无法提交当前页面或文本框中无法输入超过字符长度的信息。</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1565,10 +1693,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phone自定义定向1放大</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Phone自定义定向1缩小</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>否</t>
@@ -1584,7 +1716,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>拖动多行文本框右下方缩放按钮，使多行文本框放大</t>
+          <t>拖动多行文本框右下方缩放按钮，使多行文本框缩小</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1628,10 +1760,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phone自定义定向1是否必填</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Phone自定义定向1放大</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>否</t>
@@ -1647,12 +1783,12 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>按前置条件</t>
+          <t>拖动多行文本框右下方缩放按钮，使多行文本框放大</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>页面显示正确。</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1694,7 +1830,11 @@
           <t>Phone自定义定向2默认值</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>否</t>
@@ -1754,10 +1894,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phone自定义定向2数值正负</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Phone自定义定向2是否必填</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>否</t>
@@ -1773,12 +1917,12 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>输入正负数。（如：123，-123）</t>
+          <t>按前置条件</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>如果只限制正数，则负数提交报错，否则可以提交当前页面。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1817,10 +1961,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phone自定义定向2数值有效位</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Phone自定义定向2数值正负</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>否</t>
@@ -1836,12 +1984,12 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>按照其规则，依次在数字框中输入小数（如：规定保留3位小数，依次在数字框中输入1.23456，1.2）</t>
+          <t>输入正负数。（如：123，-123）</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>允许小数（保留位数），超出四舍五入。</t>
+          <t>如果只限制正数，则负数提交报错，否则可以提交当前页面。</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1880,10 +2028,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phone自定义定向2数值限值</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Phone自定义定向2数值有效位</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>否</t>
@@ -1899,12 +2051,12 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>有限制大小的话数字框中输入超过数值大小范围的数字，否则输入999999999</t>
+          <t>按照其规则，依次在数字框中输入小数（如：规定保留3位小数，依次在数字框中输入1.23456，1.2）</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>如果限制了大小输入超出限制值会报错，否则都可以正常提交。</t>
+          <t>允许小数（保留位数），超出四舍五入。</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1943,10 +2095,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phone自定义定向2非数值</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Phone自定义定向2数值限值</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>否</t>
@@ -1962,12 +2118,12 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>文本框中输入非数值字符</t>
+          <t>数字框中输入低于数值0或者超过数值100大小范围的数字</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>消息提醒且无法提交当前页面。</t>
+          <t>输入低于最小值0或者超出最大值100会报错，否则都可以正常提交。</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2006,10 +2162,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phone自定义定向2是否必填</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>Phone自定义定向2非数值</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>否</t>
@@ -2025,12 +2185,12 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>按前置条件</t>
+          <t>文本框中输入非数值字符</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>消息提醒且无法提交当前页面。</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2072,7 +2232,11 @@
           <t>Phone自定义定向3默认值</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>否</t>
@@ -2132,10 +2296,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phone自定义定向3下拉值内容</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>Phone自定义定向3是否必填</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>否</t>
@@ -2151,12 +2319,12 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>点击展开下拉框</t>
+          <t>按前置条件</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>下拉值数量正确。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2195,10 +2363,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phone自定义定向3随机选取下拉值</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Phone自定义定向3下拉值内容</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>否</t>
@@ -2214,12 +2386,12 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>随机选择下拉框值</t>
+          <t>点击展开下拉框</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
+          <t>下拉值数量正确。</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2258,10 +2430,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phone自定义定向3关联项</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Phone自定义定向3随机选取下拉值</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>否</t>
@@ -2282,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>如果有关联项的话，关联项展示正确。</t>
+          <t>选择下拉框的某选项后，下拉框的值变为选中选项的值。</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2321,10 +2497,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phone自定义定向3是否必填</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Phone自定义定向3关联项</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>否</t>
@@ -2340,12 +2520,12 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>按前置条件</t>
+          <t>随机选择下拉框值</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>如果有关联项的话，关联项展示正确。</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2387,7 +2567,11 @@
           <t>Phone自定义定向4默认值</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>否</t>
@@ -2450,7 +2634,11 @@
           <t>Phone自定义定向4下拉值内容</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>否</t>
@@ -2513,7 +2701,11 @@
           <t>Phone自定义定向4随机选取多个下拉值</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>否</t>
@@ -2576,7 +2768,11 @@
           <t>Phone自定义定向4关联项</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>否</t>
@@ -2631,15 +2827,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Phone自定义定向4</t>
+          <t>Phone自定义定向5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phone自定义定向4是否必填</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>Phone自定义定向5默认值</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>否</t>
@@ -2660,7 +2860,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -2699,10 +2899,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phone自定义定向5默认值</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Phone自定义定向5是否必填</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>否</t>
@@ -2723,7 +2927,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2765,7 +2969,11 @@
           <t>Phone自定义定向5勾选</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>否</t>
@@ -2828,7 +3036,11 @@
           <t>Phone自定义定向5取消勾选</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>否</t>
@@ -2883,15 +3095,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Phone自定义定向5</t>
+          <t>Phone自定义定向6</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phone自定义定向5是否必填</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>Phone自定义定向6默认值</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>否</t>
@@ -2912,7 +3128,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2951,10 +3167,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phone自定义定向6默认值</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>Phone自定义定向6是否必填</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>否</t>
@@ -2975,7 +3195,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -3017,7 +3237,11 @@
           <t>Phone自定义定向6勾选</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>否</t>
@@ -3080,7 +3304,11 @@
           <t>Phone自定义定向6取消勾选</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>否</t>
@@ -3135,15 +3363,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Phone自定义定向6</t>
+          <t>Phone自定义定向7</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phone自定义定向6是否必填</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Phone自定义定向7默认值</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>否</t>
@@ -3164,7 +3396,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -3203,10 +3435,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phone自定义定向7默认值</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>Phone自定义定向7是否必填</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>否</t>
@@ -3227,7 +3463,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3269,7 +3505,11 @@
           <t>Phone自定义定向7左侧待选择数据内容是否正确</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>否</t>
@@ -3332,7 +3572,11 @@
           <t>Phone自定义定向7左侧数据为空时是否正常显示</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>否</t>
@@ -3395,7 +3639,11 @@
           <t>Phone自定义定向7左侧数据过多时是否正常显示</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>否</t>
@@ -3458,7 +3706,11 @@
           <t>Phone自定义定向7目录是否正确，目录切换时数据是否正确</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>否</t>
@@ -3521,7 +3773,11 @@
           <t>Phone自定义定向7左侧查询功能是否正常</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>否</t>
@@ -3584,7 +3840,11 @@
           <t>Phone自定义定向7右侧已选择数据是否与左侧待选择数据一致</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>否</t>
@@ -3647,7 +3907,11 @@
           <t>Phone自定义定向7右侧数据为空时是否正常显示</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>否</t>
@@ -3710,7 +3974,11 @@
           <t>Phone自定义定向7右侧数据过多时是否正常显示</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>否</t>
@@ -3773,7 +4041,11 @@
           <t>Phone自定义定向7是否能从左侧添加数据到右侧</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>否</t>
@@ -3836,7 +4108,11 @@
           <t>Phone自定义定向7是否能从右侧删除数据</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>否</t>
@@ -3899,7 +4175,11 @@
           <t>Phone自定义定向7是否防止重复添加数据</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>否</t>
@@ -3954,15 +4234,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Phone自定义定向7</t>
+          <t>Phone自定义定向8</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phone自定义定向7是否必填</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Phone自定义定向8默认值</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>否</t>
@@ -3983,7 +4267,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -4022,10 +4306,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phone自定义定向8默认值</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Phone自定义定向8是否必填</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>否</t>
@@ -4046,7 +4334,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>输入框有默认值显示默认值，输入框无默认值显示预期值。</t>
+          <t>输入框为必填，不填或者填空格保存提示必填。</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -4088,7 +4376,11 @@
           <t>Phone自定义定向8日期选择</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>否</t>
@@ -4151,7 +4443,11 @@
           <t>Phone自定义定向8日期自动选择</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>否</t>
@@ -4214,7 +4510,11 @@
           <t>Phone自定义定向8日期输入</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>否</t>
@@ -4277,7 +4577,11 @@
           <t>Phone自定义定向8日期范围</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>否</t>
@@ -4332,15 +4636,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Phone自定义定向8</t>
+          <t>审核</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phone自定义定向8是否必填</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>审核单击</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>否</t>
@@ -4356,12 +4664,12 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>按前置条件</t>
+          <t>单击按钮</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>输入框为必填，不填保存提示必填。</t>
+          <t>单击审核后，响应正常，结果显示正确。</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -4395,15 +4703,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Phone自定义定向9</t>
+          <t>审核</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phone自定义定向9单击</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>审核双击</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>否</t>
@@ -4419,12 +4731,12 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>单击按钮</t>
+          <t>双击按钮</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>单击Phone自定义定向9后，响应正常，结果显示正确。</t>
+          <t>双击审核后，响应正常，结果显示正确。</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -4458,15 +4770,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Phone自定义定向9</t>
+          <t>编辑</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phone自定义定向9双击</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>编辑单击</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>否</t>
@@ -4482,12 +4798,12 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>双击按钮</t>
+          <t>单击按钮</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>双击Phone自定义定向9后，响应正常，结果显示正确。</t>
+          <t>单击编辑后，跳转到编辑页面，页面字段数量及内容显示正确。</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -4495,6 +4811,341 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>编辑双击</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>双击按钮</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>双击编辑后，响应正常，结果显示正确。</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>删除单击</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>单击按钮</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>单击删除后，所选数据从库中删除。</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>删除双击</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>双击按钮</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>双击删除后，响应正常，结果显示正确。</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>修改单击</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>单击按钮</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>单击修改后，跳转到编辑页面，页面字段数量及内容显示正确。</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>管理后台</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>统一运营平台-DSP</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>广告定向</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>修改双击</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>双击按钮</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>双击修改后，响应正常，结果显示正确。</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
